--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Valkyrie's Sword</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,13 +448,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Valkyrie's Sword</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,13 +448,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Valkyrie's Sword</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Angel Warrior</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bear</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Demon Berserker</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dwarf Berserker</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Elf Warrior</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Foretell</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Giant Wizard</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Human Warrior</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Icy Manalith</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kaya the Inexorable Emblem</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Koma's Coil</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Replicated Ring</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shapeshifter</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shard</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Spirit</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tibalt, Cosmic Impostor Emblem</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Treasure</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Troll Warrior</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Tyvar Kell Emblem</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Zombie Berserker</t>
         </is>
       </c>
     </row>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,165 +442,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Angel Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bear</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cat</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Demon Berserker</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Dwarf Berserker</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Elf Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Foretell</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Giant Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Human Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Icy Manalith</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Kaya the Inexorable Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Koma's Coil</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Replicated Ring</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Shapeshifter</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Shard</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Tibalt, Cosmic Impostor Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Troll Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Tyvar Kell Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Zombie Berserker</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
